--- a/MSc Thesis Gantt chart.xlsx
+++ b/MSc Thesis Gantt chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\EWEM\Thesis\Meetings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\EWEM\Thesis\Thesis_Ottelien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Start Date</t>
   </si>
@@ -161,12 +161,21 @@
   <si>
     <t>Final writing</t>
   </si>
+  <si>
+    <t>Model 4: Fuga</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Gantt Chart - Thesis Wake Superposition - Ottelien Bossuyt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +229,13 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,9 +397,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -395,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -413,11 +429,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFD5A8E7"/>
+      <color rgb="FFB86FD7"/>
       <color rgb="FFC14B3A"/>
       <color rgb="FFAFD3C5"/>
       <color rgb="FFC24B39"/>
-      <color rgb="FFB86FD7"/>
-      <color rgb="FFD5A8E7"/>
       <color rgb="FF62BED6"/>
       <color rgb="FF752A96"/>
       <color rgb="FF277D95"/>
@@ -480,9 +496,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$30</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Deadlines</c:v>
                 </c:pt>
@@ -514,48 +530,51 @@
                   <c:v>Model 3: Larsen</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Model 4: Fuga</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Research Methodologies</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Data readout</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>BEACon</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>LES</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Validation</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Wake recovery</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Wake close to rated WS</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Wake change upstream</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Wake expansion rate</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Extra topic/buffer</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Writing</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Draft writing</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Final writing</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Revision</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Graduation</c:v>
                 </c:pt>
               </c:strCache>
@@ -563,10 +582,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$C$5:$C$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$C$5:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>43040</c:v>
                 </c:pt>
@@ -598,48 +617,51 @@
                   <c:v>43142</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>43123</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43127</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43127</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>43127</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>43138</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43147</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43147</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43180</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43194</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43206</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43160</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43160</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>43220</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43273</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43282</c:v>
                 </c:pt>
               </c:numCache>
@@ -1143,9 +1165,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$30</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Deadlines</c:v>
                 </c:pt>
@@ -1177,48 +1199,51 @@
                   <c:v>Model 3: Larsen</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Model 4: Fuga</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Research Methodologies</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Data readout</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>BEACon</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>LES</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Validation</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Wake recovery</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Wake close to rated WS</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Wake change upstream</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Wake expansion rate</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Extra topic/buffer</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Writing</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Draft writing</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Final writing</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Revision</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Graduation</c:v>
                 </c:pt>
               </c:strCache>
@@ -1226,10 +1251,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$F$5:$F$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$F$5:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1252,7 +1277,7 @@
                   <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.25</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1261,19 +1286,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1303,6 +1328,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1830,9 +1858,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$30</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Deadlines</c:v>
                 </c:pt>
@@ -1864,48 +1892,51 @@
                   <c:v>Model 3: Larsen</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Model 4: Fuga</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Research Methodologies</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Data readout</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>BEACon</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>LES</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Validation</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Wake recovery</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Wake close to rated WS</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Wake change upstream</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Wake expansion rate</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Extra topic/buffer</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Writing</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Draft writing</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Final writing</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Revision</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Graduation</c:v>
                 </c:pt>
               </c:strCache>
@@ -1913,10 +1944,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$G$5:$G$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$G$5:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1939,7 +1970,7 @@
                   <c:v>21.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
@@ -1951,19 +1982,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14</c:v>
@@ -1972,24 +2003,27 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -2222,9 +2256,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$30</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Deadlines</c:v>
                 </c:pt>
@@ -2256,48 +2290,51 @@
                   <c:v>Model 3: Larsen</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Model 4: Fuga</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Research Methodologies</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Data readout</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>BEACon</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>LES</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Validation</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Wake recovery</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Wake close to rated WS</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Wake change upstream</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Wake expansion rate</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Extra topic/buffer</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Writing</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Draft writing</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Final writing</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Revision</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Graduation</c:v>
                 </c:pt>
               </c:strCache>
@@ -2305,10 +2342,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$C$5:$C$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$C$5:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>43040</c:v>
                 </c:pt>
@@ -2340,48 +2377,51 @@
                   <c:v>43142</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>43123</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43127</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43127</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>43127</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>43138</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43147</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43147</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43180</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43194</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43206</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43160</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43160</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>43220</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43273</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43282</c:v>
                 </c:pt>
               </c:numCache>
@@ -2602,7 +2642,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C24B39"/>
+                <a:srgbClr val="B86FD7"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2885,9 +2925,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$30</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Deadlines</c:v>
                 </c:pt>
@@ -2919,48 +2959,51 @@
                   <c:v>Model 3: Larsen</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Model 4: Fuga</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Research Methodologies</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Data readout</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>BEACon</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>LES</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Validation</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Wake recovery</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Wake close to rated WS</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Wake change upstream</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Wake expansion rate</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Extra topic/buffer</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Writing</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Draft writing</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Final writing</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Revision</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Graduation</c:v>
                 </c:pt>
               </c:strCache>
@@ -2968,10 +3011,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$F$5:$F$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$F$5:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2994,7 +3037,7 @@
                   <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.25</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3003,19 +3046,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3045,6 +3088,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3265,6 +3311,25 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
+                <a:srgbClr val="D5A8E7"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-B82E-4D69-9590-FABF085AAF04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="20000"/>
                   <a:lumOff val="80000"/>
@@ -3277,12 +3342,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-B82E-4D69-9590-FABF085AAF04}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
+                <c16:uniqueId val="{0000003B-B82E-4D69-9590-FABF085AAF04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3299,12 +3364,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-B82E-4D69-9590-FABF085AAF04}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
+                <c16:uniqueId val="{0000003D-B82E-4D69-9590-FABF085AAF04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3321,28 +3386,6 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-B82E-4D69-9590-FABF085AAF04}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000003F-B82E-4D69-9590-FABF085AAF04}"/>
               </c:ext>
             </c:extLst>
@@ -3572,9 +3615,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$30</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Deadlines</c:v>
                 </c:pt>
@@ -3606,48 +3649,51 @@
                   <c:v>Model 3: Larsen</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Model 4: Fuga</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Research Methodologies</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Data readout</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>BEACon</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>LES</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Validation</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Wake recovery</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Wake close to rated WS</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Wake change upstream</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Wake expansion rate</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Extra topic/buffer</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Writing</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Draft writing</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Final writing</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Revision</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Graduation</c:v>
                 </c:pt>
               </c:strCache>
@@ -3655,10 +3701,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$G$5:$G$29</c:f>
+              <c:f>'Gantt Chart - Manual End Date'!$G$5:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3681,7 +3727,7 @@
                   <c:v>21.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
@@ -3693,19 +3739,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14</c:v>
@@ -3714,24 +3760,27 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -7958,7 +8007,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7984,107 +8033,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>203199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>419324</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="203199" y="12700"/>
-          <a:ext cx="18735265" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>927100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15138400" y="584200"/>
-          <a:ext cx="3289300" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -8146,15 +8094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>674370</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8169,7 +8117,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13620750" y="6840855"/>
+          <a:off x="13611225" y="7726680"/>
           <a:ext cx="7620" cy="927735"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8198,16 +8146,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>245745</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685802</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>760095</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:colOff>836295</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>188594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8222,12 +8170,67 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12447270" y="6513195"/>
-          <a:ext cx="2438400" cy="76200"/>
+          <a:off x="11939591" y="6891339"/>
+          <a:ext cx="2674616" cy="1007743"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 314"/>
+            <a:gd name="adj1" fmla="val 142"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285752</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Verbindingslijn: gebogen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1590E0E-B5E5-46D4-BB9A-94ACAEE8D4A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12673015" y="7662865"/>
+          <a:ext cx="1609722" cy="495297"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1479"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8537,10 +8540,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8563,25 +8566,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+    <row r="2" spans="1:22" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="B2" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -8638,15 +8643,15 @@
         <f>C6</f>
         <v>43040</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
@@ -8695,15 +8700,15 @@
         <v>43115</v>
       </c>
       <c r="E6" s="16">
-        <f t="shared" ref="E6:E33" si="3">IF(D6="","",SUM(F6:G6))</f>
+        <f t="shared" ref="E6:E34" si="3">IF(D6="","",SUM(F6:G6))</f>
         <v>75</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="F6:F33" si="4">IF(((D6)=""),"",(H6)*(D6-C6))</f>
+        <f t="shared" ref="F6:F34" si="4">IF(((D6)=""),"",(H6)*(D6-C6))</f>
         <v>75</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" ref="G6:G33" si="5">IF(F6="","",(D6-C6)-F6)</f>
+        <f t="shared" ref="G6:G34" si="5">IF(F6="","",(D6-C6)-F6)</f>
         <v>0</v>
       </c>
       <c r="H6" s="6">
@@ -8875,14 +8880,14 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" si="4"/>
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="5"/>
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8944,25 +8949,25 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
-        <v>3</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>24</v>
+      <c r="A15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="3">
-        <v>43123</v>
+        <v>43136</v>
       </c>
       <c r="D15" s="3">
-        <v>43126</v>
+        <v>43137</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" ref="E15" si="6">IF(D15="","",SUM(F15:G15))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" ref="F15" si="7">IF(((D15)=""),"",(H15)*(D15-C15))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" ref="G15" si="8">IF(F15="","",(D15-C15)-F15)</f>
@@ -8974,49 +8979,49 @@
     </row>
     <row r="16" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43123</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43126</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" ref="E16" si="9">IF(D16="","",SUM(F16:G16))</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16" si="10">IF(((D16)=""),"",(H16)*(D16-C16))</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" ref="G16" si="11">IF(F16="","",(D16-C16)-F16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>43127</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>43146</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <f t="shared" si="3"/>
         <v>19</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43127</v>
-      </c>
-      <c r="D17" s="3">
-        <v>43131</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="3"/>
-        <v>4</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="4"/>
@@ -9024,7 +9029,7 @@
       </c>
       <c r="G17" s="17">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -9032,79 +9037,79 @@
     </row>
     <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3">
-        <v>43138</v>
+        <v>43127</v>
       </c>
       <c r="D18" s="3">
-        <v>43141</v>
+        <v>43131</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
-        <v>5</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>11</v>
+      <c r="A19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="3">
-        <v>43147</v>
+        <v>43138</v>
       </c>
       <c r="D19" s="3">
-        <v>43220</v>
+        <v>43141</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>2.85</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>32</v>
+      <c r="A20" s="25">
+        <v>5</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="3">
         <v>43147</v>
       </c>
       <c r="D20" s="3">
-        <v>43161</v>
+        <v>43220</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="4"/>
@@ -9112,7 +9117,7 @@
       </c>
       <c r="G20" s="17">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
@@ -9120,16 +9125,16 @@
     </row>
     <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3">
-        <v>43165</v>
+        <v>43147</v>
       </c>
       <c r="D21" s="3">
-        <v>43179</v>
+        <v>43161</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="3"/>
@@ -9149,16 +9154,16 @@
     </row>
     <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3">
-        <v>43180</v>
+        <v>43165</v>
       </c>
       <c r="D22" s="3">
-        <v>43194</v>
+        <v>43179</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" si="3"/>
@@ -9177,99 +9182,102 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="B23" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3">
+        <v>43180</v>
+      </c>
+      <c r="D23" s="3">
         <v>43194</v>
       </c>
-      <c r="D23" s="3">
-        <v>43213</v>
-      </c>
       <c r="E23" s="16">
-        <f t="shared" ref="E23" si="9">IF(D23="","",SUM(F23:G23))</f>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" ref="F23" si="10">IF(((D23)=""),"",(H23)*(D23-C23))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" ref="G23" si="11">IF(F23="","",(D23-C23)-F23)</f>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="B24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43194</v>
+      </c>
+      <c r="D24" s="3">
+        <v>43213</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" ref="E24" si="12">IF(D24="","",SUM(F24:G24))</f>
+        <v>19</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" ref="F24" si="13">IF(((D24)=""),"",(H24)*(D24-C24))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" ref="G24" si="14">IF(F24="","",(D24-C24)-F24)</f>
+        <v>19</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C25" s="8">
         <v>43206</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>43219</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3">
-        <v>43160</v>
-      </c>
-      <c r="D25" s="3">
-        <v>43280</v>
-      </c>
-      <c r="E25" s="16">
-        <f>IF(D25="","",SUM(F25:G25))</f>
-        <v>120</v>
-      </c>
-      <c r="F25" s="7">
-        <f>IF(((D25)=""),"",(H25)*(D25-C25))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <f>IF(F25="","",(D25-C25)-F25)</f>
-        <v>120</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="H25" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
-        <v>42</v>
+      <c r="B26" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C26" s="3">
         <v>43160</v>
       </c>
       <c r="D26" s="3">
-        <v>43220</v>
+        <v>43280</v>
       </c>
       <c r="E26" s="16">
         <f>IF(D26="","",SUM(F26:G26))</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7">
         <f>IF(((D26)=""),"",(H26)*(D26-C26))</f>
@@ -9277,25 +9285,25 @@
       </c>
       <c r="G26" s="17">
         <f>IF(F26="","",(D26-C26)-F26)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
-        <v>43</v>
+      <c r="B27" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="C27" s="3">
+        <v>43160</v>
+      </c>
+      <c r="D27" s="3">
         <v>43220</v>
-      </c>
-      <c r="D27" s="3">
-        <v>43266</v>
       </c>
       <c r="E27" s="16">
         <f>IF(D27="","",SUM(F27:G27))</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7">
         <f>IF(((D27)=""),"",(H27)*(D27-C27))</f>
@@ -9303,7 +9311,7 @@
       </c>
       <c r="G27" s="17">
         <f>IF(F27="","",(D27-C27)-F27)</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
@@ -9311,17 +9319,17 @@
     </row>
     <row r="28" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3">
-        <v>43273</v>
+        <v>43220</v>
       </c>
       <c r="D28" s="3">
-        <v>43281</v>
+        <v>43266</v>
       </c>
       <c r="E28" s="16">
         <f>IF(D28="","",SUM(F28:G28))</f>
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7">
         <f>IF(((D28)=""),"",(H28)*(D28-C28))</f>
@@ -9329,25 +9337,25 @@
       </c>
       <c r="G28" s="17">
         <f>IF(F28="","",(D28-C28)-F28)</f>
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="H28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
-        <v>40</v>
+      <c r="B29" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="3">
-        <v>43282</v>
+        <v>43273</v>
       </c>
       <c r="D29" s="3">
-        <v>43296</v>
+        <v>43281</v>
       </c>
       <c r="E29" s="16">
         <f>IF(D29="","",SUM(F29:G29))</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F29" s="7">
         <f>IF(((D29)=""),"",(H29)*(D29-C29))</f>
@@ -9355,29 +9363,37 @@
       </c>
       <c r="G29" s="17">
         <f>IF(F29="","",(D29-C29)-F29)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F30" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G30" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H30" s="6"/>
+      <c r="B30" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43282</v>
+      </c>
+      <c r="D30" s="3">
+        <v>43296</v>
+      </c>
+      <c r="E30" s="16">
+        <f>IF(D30="","",SUM(F30:G30))</f>
+        <v>14</v>
+      </c>
+      <c r="F30" s="7">
+        <f>IF(((D30)=""),"",(H30)*(D30-C30))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <f>IF(F30="","",(D30-C30)-F30)</f>
+        <v>14</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
@@ -9432,24 +9448,24 @@
         <v/>
       </c>
       <c r="H33" s="6"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
     </row>
     <row r="34" spans="2:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G34" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H34" s="6"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -9468,37 +9484,36 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="2"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="2:19" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
+      <c r="H36" s="4"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="2:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -9506,15 +9521,16 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="2"/>
     </row>
     <row r="38" spans="2:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
@@ -9554,16 +9570,25 @@
     </row>
     <row r="40" spans="2:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
     </row>
     <row r="41" spans="2:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -9714,14 +9739,23 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
+    <row r="58" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="11"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:S2"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="M4:S4"/>
     <mergeCell ref="K36:O36"/>
     <mergeCell ref="P36:R36"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="P35:R35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MSc Thesis Gantt chart.xlsx
+++ b/MSc Thesis Gantt chart.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\EWEM\Thesis\Thesis_Ottelien\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BD67F-E230-4120-89BF-63B8FA5CA069}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,6 +398,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -408,9 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -958,7 +959,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1286,19 +1287,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1979,19 +1980,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>73</c:v>
@@ -2718,7 +2719,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3046,19 +3047,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3396,7 +3397,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3736,19 +3740,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>73</c:v>
@@ -8525,7 +8529,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -8542,8 +8546,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8567,26 +8571,26 @@
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:22" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -8643,15 +8647,15 @@
         <f>C6</f>
         <v>43040</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
@@ -8967,14 +8971,14 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" ref="F15" si="7">IF(((D15)=""),"",(H15)*(D15-C15))</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" ref="G15" si="8">IF(F15="","",(D15-C15)-F15)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H15" s="6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -9025,14 +9029,14 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -9054,14 +9058,14 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" si="4"/>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" si="5"/>
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -9083,14 +9087,14 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="4"/>
-        <v>0.15000000000000002</v>
+        <v>3</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" si="5"/>
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -9503,14 +9507,14 @@
       <c r="G36" s="2"/>
       <c r="H36" s="4"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="2:19" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9522,14 +9526,14 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="J37" s="27"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="2:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
